--- a/www.eia.gov/electricity/monthly/xls/table_4_14.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
   <si>
-    <t>Table 4.14. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Total (All Sectors) by State, October 2016</t>
+    <t>Table 4.14. Receipts and Quality of Coal by Rank Delivered for Electricity Generation: Total (All Sectors) by State, November 2016</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1311,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="12">
-        <v>1.55</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="13">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16">
         <v>0.75</v>
@@ -1407,13 +1407,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="15">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C8" s="16">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="D8" s="17">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="15">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2.84</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.7</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="11">
-        <v>1535</v>
+        <v>1419</v>
       </c>
       <c r="C12" s="12">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="D12" s="13">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="15">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="16">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="D13" s="17">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="15">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="16">
-        <v>2.95</v>
+        <v>2.46</v>
       </c>
       <c r="D14" s="17">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="15">
-        <v>1405</v>
+        <v>1298</v>
       </c>
       <c r="C15" s="16">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="D15" s="17">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="11">
-        <v>5496</v>
+        <v>4977</v>
       </c>
       <c r="C16" s="12">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="D16" s="13">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="E16" s="11">
-        <v>6121</v>
+        <v>6094</v>
       </c>
       <c r="F16" s="12">
         <v>0.25</v>
@@ -1695,19 +1695,19 @@
         <v>23</v>
       </c>
       <c r="B17" s="15">
-        <v>803</v>
+        <v>509</v>
       </c>
       <c r="C17" s="16">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="D17" s="17">
-        <v>20.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E17" s="15">
-        <v>2616</v>
+        <v>2784</v>
       </c>
       <c r="F17" s="16">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G17" s="17">
         <v>4.7</v>
@@ -1727,22 +1727,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="15">
-        <v>2281</v>
+        <v>2201</v>
       </c>
       <c r="C18" s="16">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="D18" s="17">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="E18" s="15">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F18" s="16">
         <v>0.23</v>
       </c>
       <c r="G18" s="17">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -1759,22 +1759,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="15">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="C19" s="16">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="D19" s="17">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="E19" s="15">
-        <v>1728</v>
+        <v>1487</v>
       </c>
       <c r="F19" s="16">
         <v>0.28000000000000003</v>
       </c>
       <c r="G19" s="17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="15">
-        <v>2133</v>
+        <v>2016</v>
       </c>
       <c r="C20" s="16">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="D20" s="17">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="E20" s="15">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4.7</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="H20" s="15">
         <v>0</v>
@@ -1823,22 +1823,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="15">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C21" s="16">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="D21" s="17">
         <v>8.1</v>
       </c>
       <c r="E21" s="15">
-        <v>1644</v>
+        <v>1706</v>
       </c>
       <c r="F21" s="16">
         <v>0.26</v>
       </c>
       <c r="G21" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -1855,31 +1855,31 @@
         <v>28</v>
       </c>
       <c r="B22" s="11">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="D22" s="13">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E22" s="11">
-        <v>8633</v>
+        <v>7962</v>
       </c>
       <c r="F22" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G22" s="13">
         <v>5.0999999999999996</v>
       </c>
       <c r="H22" s="11">
-        <v>1671</v>
+        <v>1755</v>
       </c>
       <c r="I22" s="12">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J22" s="13">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,19 +1887,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="15">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C23" s="16">
         <v>3.4</v>
       </c>
       <c r="D23" s="17">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E23" s="15">
-        <v>1816</v>
+        <v>1340</v>
       </c>
       <c r="F23" s="16">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G23" s="17">
         <v>4.9000000000000004</v>
@@ -1922,19 +1922,19 @@
         <v>15</v>
       </c>
       <c r="C24" s="16">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="D24" s="17">
         <v>12.6</v>
       </c>
       <c r="E24" s="15">
-        <v>1476</v>
+        <v>1303</v>
       </c>
       <c r="F24" s="16">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G24" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="15">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="F25" s="16">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="G25" s="17">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H25" s="15">
         <v>0</v>
@@ -1983,19 +1983,19 @@
         <v>32</v>
       </c>
       <c r="B26" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="D26" s="17">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E26" s="15">
-        <v>2810</v>
+        <v>2713</v>
       </c>
       <c r="F26" s="16">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G26" s="17">
         <v>4.8</v>
@@ -2024,10 +2024,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="15">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="F27" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G27" s="17">
         <v>5.3</v>
@@ -2056,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="E28" s="15">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F28" s="16">
         <v>0.34</v>
       </c>
       <c r="G28" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H28" s="15">
-        <v>1671</v>
+        <v>1755</v>
       </c>
       <c r="I28" s="16">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J28" s="17">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="15">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F29" s="16">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="17">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H29" s="15">
         <v>0</v>
@@ -2111,22 +2111,22 @@
         <v>36</v>
       </c>
       <c r="B30" s="11">
-        <v>7169</v>
+        <v>7124</v>
       </c>
       <c r="C30" s="12">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="D30" s="13">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="E30" s="11">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="F30" s="12">
         <v>0.34</v>
       </c>
       <c r="G30" s="13">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>37</v>
       </c>
       <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="D31" s="17">
+        <v>7.5</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>39</v>
       </c>
       <c r="B33" s="15">
-        <v>1548</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="16">
-        <v>2.2400000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="D33" s="17">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="15">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="C34" s="16">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="D34" s="17">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="E34" s="15">
-        <v>890</v>
+        <v>843</v>
       </c>
       <c r="F34" s="16">
         <v>0.34</v>
       </c>
       <c r="G34" s="17">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H34" s="15">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="C35" s="16">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="D35" s="17">
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="17">
+        <v>4.5999999999999996</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="15">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="C36" s="16">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="D36" s="17">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="15">
-        <v>266</v>
+        <v>635</v>
       </c>
       <c r="C37" s="16">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="D37" s="17">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="15">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="C38" s="16">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="D38" s="17">
-        <v>10.3</v>
+        <v>14.1</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="15">
-        <v>2138</v>
+        <v>2256</v>
       </c>
       <c r="C39" s="16">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="D39" s="17">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="11">
-        <v>3462</v>
+        <v>3431</v>
       </c>
       <c r="C40" s="12">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="D40" s="13">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="E40" s="11">
-        <v>2702</v>
+        <v>2346</v>
       </c>
       <c r="F40" s="12">
         <v>0.27</v>
@@ -2449,13 +2449,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H40" s="11">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="I40" s="12">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J40" s="13">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2463,19 +2463,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="15">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C41" s="16">
-        <v>1.69</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D41" s="17">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="E41" s="15">
-        <v>1058</v>
+        <v>978</v>
       </c>
       <c r="F41" s="16">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G41" s="17">
         <v>5.2</v>
@@ -2495,19 +2495,19 @@
         <v>48</v>
       </c>
       <c r="B42" s="15">
-        <v>2438</v>
+        <v>2400</v>
       </c>
       <c r="C42" s="16">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="D42" s="17">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="E42" s="15">
-        <v>1145</v>
+        <v>960</v>
       </c>
       <c r="F42" s="16">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G42" s="17">
         <v>5.2</v>
@@ -2527,31 +2527,31 @@
         <v>49</v>
       </c>
       <c r="B43" s="15">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C43" s="16">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="D43" s="17">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E43" s="15">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F43" s="16">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G43" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H43" s="15">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="I43" s="16">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J43" s="17">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2559,22 +2559,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="15">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="C44" s="16">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="D44" s="17">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="E44" s="15">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="F44" s="16">
         <v>0.26</v>
       </c>
       <c r="G44" s="17">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H44" s="15">
         <v>0</v>
@@ -2591,31 +2591,31 @@
         <v>51</v>
       </c>
       <c r="B45" s="11">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="12">
-        <v>2.3199999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="D45" s="13">
-        <v>18.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="E45" s="11">
-        <v>8249</v>
+        <v>7873</v>
       </c>
       <c r="F45" s="12">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G45" s="13">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H45" s="11">
-        <v>3506</v>
+        <v>3093</v>
       </c>
       <c r="I45" s="12">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="J45" s="13">
-        <v>16.8</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="16">
         <v>0.64</v>
@@ -2632,13 +2632,13 @@
         <v>8.1</v>
       </c>
       <c r="E46" s="15">
-        <v>1323</v>
+        <v>1193</v>
       </c>
       <c r="F46" s="16">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G46" s="17">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="H46" s="15">
         <v>0</v>
@@ -2658,13 +2658,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="16">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="D47" s="17">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E47" s="15">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="F47" s="16">
         <v>0.26</v>
@@ -2673,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="H47" s="15">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I47" s="16">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J47" s="17">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,22 +2687,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="15">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C48" s="16">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="D48" s="17">
-        <v>29.5</v>
+        <v>25.8</v>
       </c>
       <c r="E48" s="15">
-        <v>1247</v>
+        <v>799</v>
       </c>
       <c r="F48" s="16">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G48" s="17">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H48" s="15">
         <v>0</v>
@@ -2728,22 +2728,22 @@
         <v>11</v>
       </c>
       <c r="E49" s="15">
-        <v>5323</v>
+        <v>5496</v>
       </c>
       <c r="F49" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G49" s="17">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H49" s="15">
-        <v>3245</v>
+        <v>2818</v>
       </c>
       <c r="I49" s="16">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="J49" s="17">
-        <v>16.899999999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2751,22 +2751,22 @@
         <v>56</v>
       </c>
       <c r="B50" s="11">
-        <v>2461</v>
+        <v>2423</v>
       </c>
       <c r="C50" s="12">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="D50" s="13">
         <v>14.1</v>
       </c>
       <c r="E50" s="11">
-        <v>5754</v>
+        <v>5694</v>
       </c>
       <c r="F50" s="12">
         <v>0.51</v>
       </c>
       <c r="G50" s="13">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
@@ -2783,22 +2783,22 @@
         <v>57</v>
       </c>
       <c r="B51" s="15">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="C51" s="16">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="D51" s="17">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E51" s="15">
-        <v>995</v>
+        <v>806</v>
       </c>
       <c r="F51" s="16">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="G51" s="17">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="H51" s="15">
         <v>0</v>
@@ -2815,22 +2815,22 @@
         <v>58</v>
       </c>
       <c r="B52" s="15">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C52" s="16">
         <v>0.51</v>
       </c>
       <c r="D52" s="17">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E52" s="15">
-        <v>1288</v>
+        <v>1332</v>
       </c>
       <c r="F52" s="16">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G52" s="17">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H52" s="15">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>11</v>
       </c>
       <c r="E54" s="15">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="F54" s="16">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="G54" s="17">
-        <v>9.6999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H54" s="15">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>61</v>
       </c>
       <c r="B55" s="15">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C55" s="16">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D55" s="17">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F55" s="16">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="G55" s="17">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H55" s="15">
         <v>0</v>
@@ -2943,22 +2943,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="15">
-        <v>578</v>
+        <v>515</v>
       </c>
       <c r="C56" s="16">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="D56" s="17">
-        <v>22.5</v>
+        <v>21.9</v>
       </c>
       <c r="E56" s="15">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="F56" s="16">
         <v>0.73</v>
       </c>
       <c r="G56" s="17">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="H56" s="15">
         <v>0</v>
@@ -2975,19 +2975,19 @@
         <v>63</v>
       </c>
       <c r="B57" s="15">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C57" s="16">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D57" s="17">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E57" s="15">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F57" s="16">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="G57" s="17">
         <v>8.6999999999999993</v>
@@ -3016,13 +3016,13 @@
         <v>11</v>
       </c>
       <c r="E58" s="15">
-        <v>1957</v>
+        <v>2081</v>
       </c>
       <c r="F58" s="16">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="G58" s="17">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H58" s="15">
         <v>0</v>
@@ -3039,22 +3039,22 @@
         <v>65</v>
       </c>
       <c r="B59" s="11">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C59" s="12">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D59" s="13">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E59" s="11">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="F59" s="12">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G59" s="13">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>66</v>
       </c>
       <c r="B60" s="15">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C60" s="16">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D60" s="17">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="15">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F61" s="16">
         <v>0.24</v>
@@ -3144,13 +3144,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="15">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="F62" s="16">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="G62" s="17">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H62" s="15">
         <v>0</v>
@@ -3176,22 +3176,22 @@
         <v>11</v>
       </c>
       <c r="E63" s="11">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F63" s="12">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G63" s="13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H63" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="12">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J63" s="13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3217,13 +3217,13 @@
         <v>11</v>
       </c>
       <c r="H64" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" s="16">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J64" s="17">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,13 +3240,13 @@
         <v>11</v>
       </c>
       <c r="E65" s="15">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F65" s="16">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G65" s="17">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H65" s="15">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         <v>72</v>
       </c>
       <c r="B66" s="11">
-        <v>20407</v>
+        <v>19623</v>
       </c>
       <c r="C66" s="12">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D66" s="13">
         <v>10.1</v>
       </c>
       <c r="E66" s="11">
-        <v>32872</v>
+        <v>31506</v>
       </c>
       <c r="F66" s="12">
         <v>0.32</v>
@@ -3281,13 +3281,13 @@
         <v>5.9</v>
       </c>
       <c r="H66" s="11">
-        <v>5370</v>
+        <v>5117</v>
       </c>
       <c r="I66" s="12">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="J66" s="13">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
